--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -232,20 +232,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -264,6 +255,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +548,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,390 +586,390 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
         <f>D2-E2</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
         <f>E2/(E2+F2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F18" si="0">D3-E3</f>
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f t="shared" ref="G3:G18" si="1">E3/(E3+F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
         <f>D4-E4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="D6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="C8" s="16"/>
+      <c r="D8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="D11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="C12" s="16"/>
+      <c r="D12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="D13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="C15" s="16"/>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="C16" s="16"/>
+      <c r="D16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="8">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="D18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="7">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
       </c>
       <c r="B21">
         <f>SUM(E2:E18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -998,7 +998,7 @@
       </c>
       <c r="B22">
         <f>SUM(F2:F18)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1007,11 +1007,17 @@
       </c>
       <c r="B23" s="3">
         <f>B21/(B21+B22)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -1022,12 +1028,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
